--- a/AE Sakib/Satkhira Div-II/Regulator/3V Khejurdangi/Design Input/Khejurdangi_3_vent.xlsx
+++ b/AE Sakib/Satkhira Div-II/Regulator/3V Khejurdangi/Design Input/Khejurdangi_3_vent.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
@@ -14,6 +14,9 @@
     <sheet name="structure_name" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Basic_Parameter!$A$1:$C$33</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -182,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,13 +211,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -277,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -312,7 +334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -489,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,310 +547,315 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
